--- a/docs/의사조합_템플릿.xlsx
+++ b/docs/의사조합_템플릿.xlsx
@@ -1,46 +1,114 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView xWindow="600" yWindow="525" windowWidth="27735" windowHeight="11925"/>
+  </bookViews>
   <sheets>
     <sheet name="의사조합" sheetId="1" r:id="rId1"/>
+    <sheet name="의사목록" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+  <si>
+    <t>조합명</t>
+  </si>
+  <si>
+    <t>요일</t>
+  </si>
+  <si>
+    <t>필요인원</t>
+  </si>
+  <si>
+    <t>의사1</t>
+  </si>
+  <si>
+    <t>의사2</t>
+  </si>
+  <si>
+    <t>의사3</t>
+  </si>
+  <si>
+    <t>월요일</t>
+  </si>
+  <si>
+    <t>의사명</t>
+  </si>
+  <si>
+    <t>박창범(상담)</t>
+  </si>
+  <si>
+    <t>황우상</t>
+  </si>
+  <si>
+    <t>구윤진</t>
+  </si>
+  <si>
+    <t>박효진</t>
+  </si>
+  <si>
+    <t>윤아향</t>
+  </si>
+  <si>
+    <t>박창범(진료)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박(상담)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박(진료)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구윤진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -68,7 +136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -399,80 +467,157 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="6" width="15.77734375" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>조합명</v>
-      </c>
-      <c r="B1" t="str">
-        <v>요일</v>
-      </c>
-      <c r="C1" t="str">
-        <v>필요인원</v>
-      </c>
-      <c r="D1" t="str">
-        <v>의사1</v>
-      </c>
-      <c r="E1" t="str">
-        <v>의사2</v>
-      </c>
-      <c r="F1" t="str">
-        <v>의사3</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:6" ht="17.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.25">
       <c r="A2" t="str">
-        <v>박(상담)구윤</v>
-      </c>
-      <c r="B2" t="str">
-        <v>월요일</v>
+        <f>VLOOKUP(D2,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E2,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F2,의사목록!$A:$B,2,FALSE)</f>
+        <v>박(상담)구진</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" t="str">
-        <v>박원장(상담)</v>
-      </c>
-      <c r="E2" t="str">
-        <v>구원장</v>
-      </c>
-      <c r="F2" t="str">
-        <v>윤원장</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>구윤</v>
-      </c>
-      <c r="B3" t="str">
-        <v>월요일</v>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.25">
+      <c r="B3" t="s">
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" t="str">
-        <v>구원장</v>
-      </c>
-      <c r="E3" t="str">
-        <v>윤원장</v>
-      </c>
-      <c r="F3" t="str">
-        <v/>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
+      <formula1>의사목록!$A:$A</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F3"/>
+    <ignoredError sqref="A1:C1 B3:C3 B2:C2" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A4:A7 A1:A2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/docs/의사조합_템플릿.xlsx
+++ b/docs/의사조합_템플릿.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="29">
   <si>
     <t>조합명</t>
   </si>
@@ -41,9 +41,6 @@
     <t>의사명</t>
   </si>
   <si>
-    <t>박창범(상담)</t>
-  </si>
-  <si>
     <t>황우상</t>
   </si>
   <si>
@@ -56,18 +53,6 @@
     <t>윤아향</t>
   </si>
   <si>
-    <t>박창범(진료)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박(상담)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박(진료)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>황</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,11 +69,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구윤진</t>
+    <t>화요일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수요일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목요일</t>
+  </si>
+  <si>
+    <t>목요일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금요일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토요일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박창범</t>
+  </si>
+  <si>
+    <t>박창범</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,22 +492,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="6" width="15.77734375" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.77734375" customWidth="1"/>
+    <col min="5" max="7" width="15.77734375" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,128 +515,427 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="str">
-        <f>VLOOKUP(D2,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E2,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F2,의사목록!$A:$B,2,FALSE)</f>
-        <v>박(상담)구진</v>
+        <f>IF(G2="",VLOOKUP(E2,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F2,의사목록!$A:$B,2,FALSE),VLOOKUP(E2,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F2,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(G2,의사목록!$A:$B,2,FALSE))</f>
+        <v>박구윤</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
+      <c r="D2">
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17.25">
+    <row r="3" spans="1:9">
+      <c r="A3" t="str">
+        <f>IF(G3="",VLOOKUP(E3,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F3,의사목록!$A:$B,2,FALSE),VLOOKUP(E3,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F3,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(G3,의사목록!$A:$B,2,FALSE))</f>
+        <v>구윤</v>
+      </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>2</v>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="str">
+        <f>IF(G4="",VLOOKUP(E4,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F4,의사목록!$A:$B,2,FALSE),VLOOKUP(E4,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F4,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(G4,의사목록!$A:$B,2,FALSE))</f>
+        <v>박구윤</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="str">
+        <f>IF(G5="",VLOOKUP(E5,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F5,의사목록!$A:$B,2,FALSE),VLOOKUP(E5,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F5,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(G5,의사목록!$A:$B,2,FALSE))</f>
+        <v>박구황</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="str">
+        <f>IF(G6="",VLOOKUP(E6,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F6,의사목록!$A:$B,2,FALSE),VLOOKUP(E6,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F6,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(G6,의사목록!$A:$B,2,FALSE))</f>
+        <v>박황윤</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="str">
+        <f>IF(G7="",VLOOKUP(E7,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F7,의사목록!$A:$B,2,FALSE),VLOOKUP(E7,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F7,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(G7,의사목록!$A:$B,2,FALSE))</f>
+        <v>박효윤</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="str">
+        <f>IF(G8="",VLOOKUP(E8,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F8,의사목록!$A:$B,2,FALSE),VLOOKUP(E8,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F8,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(G8,의사목록!$A:$B,2,FALSE))</f>
+        <v>구윤</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="str">
+        <f>IF(G9="",VLOOKUP(E9,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F9,의사목록!$A:$B,2,FALSE),VLOOKUP(E9,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F9,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(G9,의사목록!$A:$B,2,FALSE))</f>
+        <v>효윤</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="str">
+        <f>IF(G10="",VLOOKUP(E10,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F10,의사목록!$A:$B,2,FALSE),VLOOKUP(E10,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F10,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(G10,의사목록!$A:$B,2,FALSE))</f>
+        <v>박구효</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="str">
+        <f>IF(G11="",VLOOKUP(E11,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F11,의사목록!$A:$B,2,FALSE),VLOOKUP(E11,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F11,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(G11,의사목록!$A:$B,2,FALSE))</f>
+        <v>구효</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="str">
+        <f>IF(G12="",VLOOKUP(E12,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F12,의사목록!$A:$B,2,FALSE),VLOOKUP(E12,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F12,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(G12,의사목록!$A:$B,2,FALSE))</f>
+        <v>박황</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="str">
+        <f>IF(G13="",VLOOKUP(E13,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F13,의사목록!$A:$B,2,FALSE),VLOOKUP(E13,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F13,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(G13,의사목록!$A:$B,2,FALSE))</f>
+        <v>박구효</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="str">
+        <f>IF(G14="",VLOOKUP(E14,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F14,의사목록!$A:$B,2,FALSE),VLOOKUP(E14,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F14,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(G14,의사목록!$A:$B,2,FALSE))</f>
+        <v>박구황</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="str">
+        <f>IF(G15="",VLOOKUP(E15,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F15,의사목록!$A:$B,2,FALSE),VLOOKUP(E15,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F15,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(G15,의사목록!$A:$B,2,FALSE))</f>
+        <v>박구</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="str">
+        <f>IF(G16="",VLOOKUP(E16,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F16,의사목록!$A:$B,2,FALSE),VLOOKUP(E16,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F16,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(G16,의사목록!$A:$B,2,FALSE))</f>
+        <v>구황</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="str">
+        <f>IF(G17="",VLOOKUP(E17,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F17,의사목록!$A:$B,2,FALSE),VLOOKUP(E17,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F17,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(G17,의사목록!$A:$B,2,FALSE))</f>
+        <v>구효</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:G1048576">
       <formula1>의사목록!$A:$A</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C1 B3:C3 B2:C2" numberStoredAsText="1"/>
+    <ignoredError sqref="D1 B2:B3 A1:B1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="17.25">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -617,7 +943,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A4:A7 A1:A2" numberStoredAsText="1"/>
+    <ignoredError sqref="A3:A6 A1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/docs/의사조합_템플릿.xlsx
+++ b/docs/의사조합_템플릿.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\작업\프로그램 만들기\연세바로치과 스케줄러\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="525" windowWidth="27735" windowHeight="11925"/>
   </bookViews>
@@ -10,7 +15,7 @@
     <sheet name="의사조합" sheetId="1" r:id="rId1"/>
     <sheet name="의사목록" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -85,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>목요일</t>
   </si>
   <si>
@@ -116,14 +117,18 @@
   </si>
   <si>
     <t>`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -167,6 +172,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -491,14 +504,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.77734375" customWidth="1"/>
     <col min="2" max="4" width="10.77734375" customWidth="1"/>
@@ -507,7 +520,7 @@
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,10 +528,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -530,7 +543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>IF(G2="",VLOOKUP(E2,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F2,의사목록!$A:$B,2,FALSE),VLOOKUP(E2,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F2,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(G2,의사목록!$A:$B,2,FALSE))</f>
         <v>박구윤</v>
@@ -538,11 +551,11 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="C2">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -551,7 +564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>IF(G3="",VLOOKUP(E3,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F3,의사목록!$A:$B,2,FALSE),VLOOKUP(E3,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F3,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(G3,의사목록!$A:$B,2,FALSE))</f>
         <v>구윤</v>
@@ -559,7 +572,7 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
+      <c r="C3">
         <v>8</v>
       </c>
       <c r="E3" t="s">
@@ -569,7 +582,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>IF(G4="",VLOOKUP(E4,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F4,의사목록!$A:$B,2,FALSE),VLOOKUP(E4,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F4,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(G4,의사목록!$A:$B,2,FALSE))</f>
         <v>박구윤</v>
@@ -577,14 +590,14 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -593,7 +606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>IF(G5="",VLOOKUP(E5,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F5,의사목록!$A:$B,2,FALSE),VLOOKUP(E5,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F5,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(G5,의사목록!$A:$B,2,FALSE))</f>
         <v>박구황</v>
@@ -601,14 +614,14 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="D5">
-        <v>15</v>
-      </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -617,7 +630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>IF(G6="",VLOOKUP(E6,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F6,의사목록!$A:$B,2,FALSE),VLOOKUP(E6,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F6,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(G6,의사목록!$A:$B,2,FALSE))</f>
         <v>박황윤</v>
@@ -625,11 +638,11 @@
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="D6">
+      <c r="C6">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -638,7 +651,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>IF(G7="",VLOOKUP(E7,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F7,의사목록!$A:$B,2,FALSE),VLOOKUP(E7,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F7,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(G7,의사목록!$A:$B,2,FALSE))</f>
         <v>박효윤</v>
@@ -646,14 +659,14 @@
       <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="D7">
-        <v>14</v>
-      </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -662,18 +675,18 @@
         <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>IF(G8="",VLOOKUP(E8,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F8,의사목록!$A:$B,2,FALSE),VLOOKUP(E8,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F8,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(G8,의사목록!$A:$B,2,FALSE))</f>
         <v>구윤</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8">
+        <v>21</v>
+      </c>
+      <c r="C8">
         <v>6</v>
       </c>
       <c r="E8" t="s">
@@ -683,15 +696,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>IF(G9="",VLOOKUP(E9,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F9,의사목록!$A:$B,2,FALSE),VLOOKUP(E9,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F9,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(G9,의사목록!$A:$B,2,FALSE))</f>
         <v>효윤</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9">
+        <v>21</v>
+      </c>
+      <c r="C9">
         <v>6</v>
       </c>
       <c r="E9" t="s">
@@ -701,22 +714,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>IF(G10="",VLOOKUP(E10,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F10,의사목록!$A:$B,2,FALSE),VLOOKUP(E10,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F10,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(G10,의사목록!$A:$B,2,FALSE))</f>
         <v>박구효</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
         <v>19</v>
       </c>
-      <c r="D10">
-        <v>15</v>
-      </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -725,19 +738,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>IF(G11="",VLOOKUP(E11,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F11,의사목록!$A:$B,2,FALSE),VLOOKUP(E11,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F11,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(G11,의사목록!$A:$B,2,FALSE))</f>
         <v>구효</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
         <v>19</v>
-      </c>
-      <c r="D11">
-        <v>8</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -746,40 +759,40 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>IF(G12="",VLOOKUP(E12,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F12,의사목록!$A:$B,2,FALSE),VLOOKUP(E12,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F12,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(G12,의사목록!$A:$B,2,FALSE))</f>
         <v>박황</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
         <v>19</v>
       </c>
-      <c r="D12">
-        <v>14</v>
-      </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>IF(G13="",VLOOKUP(E13,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F13,의사목록!$A:$B,2,FALSE),VLOOKUP(E13,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F13,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(G13,의사목록!$A:$B,2,FALSE))</f>
         <v>박구효</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13">
+        <v>23</v>
+      </c>
+      <c r="C13">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -788,19 +801,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f>IF(G14="",VLOOKUP(E14,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F14,의사목록!$A:$B,2,FALSE),VLOOKUP(E14,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F14,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(G14,의사목록!$A:$B,2,FALSE))</f>
         <v>박구황</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14">
+        <v>23</v>
+      </c>
+      <c r="C14">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -809,33 +822,33 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>IF(G15="",VLOOKUP(E15,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F15,의사목록!$A:$B,2,FALSE),VLOOKUP(E15,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F15,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(G15,의사목록!$A:$B,2,FALSE))</f>
         <v>박구</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15">
+        <v>23</v>
+      </c>
+      <c r="C15">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>IF(G16="",VLOOKUP(E16,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F16,의사목록!$A:$B,2,FALSE),VLOOKUP(E16,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F16,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(G16,의사목록!$A:$B,2,FALSE))</f>
         <v>구황</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16">
+        <v>23</v>
+      </c>
+      <c r="C16">
         <v>10</v>
       </c>
       <c r="E16" t="s">
@@ -845,15 +858,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>IF(G17="",VLOOKUP(E17,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F17,의사목록!$A:$B,2,FALSE),VLOOKUP(E17,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(F17,의사목록!$A:$B,2,FALSE)&amp;VLOOKUP(G17,의사목록!$A:$B,2,FALSE))</f>
         <v>구효</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17">
+        <v>23</v>
+      </c>
+      <c r="C17">
         <v>10</v>
       </c>
       <c r="E17" t="s">
@@ -865,32 +878,39 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:G1048576">
-      <formula1>의사목록!$A:$A</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="D1 B2:B3 A1:B1" numberStoredAsText="1"/>
+    <ignoredError sqref="C1 B2:B3 A1:B1" numberStoredAsText="1"/>
   </ignoredErrors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>의사목록!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1:G1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -898,15 +918,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -914,7 +934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -922,7 +942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -930,7 +950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
